--- a/Test Cases/Positive Test Cases/NavBar Test Suite.xlsx
+++ b/Test Cases/Positive Test Cases/NavBar Test Suite.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="51">
   <si>
     <t>Test Case № 1</t>
   </si>
@@ -134,18 +134,59 @@
   </si>
   <si>
     <t>Do the same but start from Register Page</t>
+  </si>
+  <si>
+    <t>Test Case № 8</t>
+  </si>
+  <si>
+    <t>1. Navigate to the Home Page</t>
+  </si>
+  <si>
+    <t>Admin NavBar</t>
+  </si>
+  <si>
+    <t>2. From the NavBar choose "Registered profiles" Button</t>
+  </si>
+  <si>
+    <t>Registered profiles Page appears</t>
+  </si>
+  <si>
+    <t>Check if the NavBar is sending the admin to the chosen page</t>
+  </si>
+  <si>
+    <t>Do the same but start from Admin Supplements Page</t>
+  </si>
+  <si>
+    <t>Do the same but start from Admin Fitness Clothing Page</t>
+  </si>
+  <si>
+    <t>Do the same but start from Admin Messages Page</t>
+  </si>
+  <si>
+    <t>The admin is redirected to the chosen page</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -169,8 +210,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,9 +539,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -527,9 +572,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -551,7 +599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>29</v>
       </c>
@@ -562,9 +610,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -574,6 +625,7 @@
       <c r="B10" t="s">
         <v>2</v>
       </c>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -597,9 +649,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -627,9 +682,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -657,9 +715,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -687,9 +748,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -724,6 +788,9 @@
       <c r="B27" t="s">
         <v>1</v>
       </c>
+      <c r="C27" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
@@ -737,65 +804,183 @@
       <c r="B31" t="s">
         <v>1</v>
       </c>
+      <c r="C31" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>33</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>34</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>34</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Cases/Positive Test Cases/NavBar Test Suite.xlsx
+++ b/Test Cases/Positive Test Cases/NavBar Test Suite.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="51">
   <si>
     <t>Test Case № 1</t>
   </si>
@@ -139,18 +139,9 @@
     <t>Test Case № 8</t>
   </si>
   <si>
-    <t>1. Navigate to the Home Page</t>
-  </si>
-  <si>
     <t>Admin NavBar</t>
   </si>
   <si>
-    <t>2. From the NavBar choose "Registered profiles" Button</t>
-  </si>
-  <si>
-    <t>Registered profiles Page appears</t>
-  </si>
-  <si>
     <t>Check if the NavBar is sending the admin to the chosen page</t>
   </si>
   <si>
@@ -167,6 +158,15 @@
   </si>
   <si>
     <t>Passed</t>
+  </si>
+  <si>
+    <t>2. From the NavBar choose any of the existing pages</t>
+  </si>
+  <si>
+    <t>Desired page appears</t>
+  </si>
+  <si>
+    <t>1. Navigate to the Admin Home Page</t>
   </si>
 </sst>
 </file>
@@ -190,12 +190,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -210,9 +216,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,9 +525,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -535,16 +543,17 @@
       <c r="A1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>50</v>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -572,89 +581,54 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>50</v>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -664,63 +638,38 @@
       <c r="B14" t="s">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -739,236 +688,290 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>17</v>
       </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B34" s="2"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>4</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B35" t="s">
         <v>2</v>
       </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>19</v>
       </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="C39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B43" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="C43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B47" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="C47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B51" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="C51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B55" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+      <c r="C55" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B59" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+      <c r="C59" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B51" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="B63" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>27</v>
-      </c>
-      <c r="B56" t="s">
-        <v>45</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C57" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>31</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>47</v>
-      </c>
-      <c r="C61" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" t="s">
-        <v>49</v>
-      </c>
+      <c r="C63" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>48</v>
       </c>
@@ -977,6 +980,75 @@
       </c>
       <c r="D65" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>44</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Test Cases/Positive Test Cases/NavBar Test Suite.xlsx
+++ b/Test Cases/Positive Test Cases/NavBar Test Suite.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="52">
   <si>
     <t>Test Case № 1</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>1. Navigate to the Admin Home Page</t>
+  </si>
+  <si>
+    <t>Iteration 7</t>
   </si>
 </sst>
 </file>
@@ -527,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,7 +922,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>1</v>
